--- a/deployment/Omaha_Cal_Info_CE01ISSP_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSP_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="600" windowWidth="25608" windowHeight="16068" tabRatio="579"/>
+    <workbookView xWindow="1005" yWindow="600" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2182,24 +2177,24 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G19:G20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2240,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -2260,7 +2255,7 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="G2" s="38">
-        <v>42111</v>
+        <v>41787</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>60</v>
@@ -2283,91 +2278,91 @@
         <v>-124.09816666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="4:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
@@ -2395,16 +2390,16 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2436,7 +2431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2447,7 +2442,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>91</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>91</v>
       </c>
@@ -2534,7 +2529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>91</v>
       </c>
@@ -2563,7 +2558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20"/>
@@ -2574,7 +2569,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>92</v>
       </c>
@@ -2603,7 +2598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>92</v>
       </c>
@@ -2630,7 +2625,7 @@
       </c>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
@@ -2657,7 +2652,7 @@
       </c>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>92</v>
       </c>
@@ -2684,7 +2679,7 @@
       </c>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>92</v>
       </c>
@@ -2711,7 +2706,7 @@
       </c>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>92</v>
       </c>
@@ -2738,7 +2733,7 @@
       </c>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>92</v>
       </c>
@@ -2765,7 +2760,7 @@
       </c>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>92</v>
       </c>
@@ -2792,7 +2787,7 @@
       </c>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
@@ -2803,7 +2798,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>93</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>93</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -2872,7 +2867,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>94</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>94</v>
       </c>
@@ -2930,7 +2925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>94</v>
       </c>
@@ -2959,7 +2954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>94</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>94</v>
       </c>
@@ -3017,7 +3012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>94</v>
       </c>
@@ -3046,7 +3041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>94</v>
       </c>
@@ -3075,7 +3070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -3086,7 +3081,7 @@
       <c r="H27" s="18"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>95</v>
       </c>
@@ -3113,7 +3108,7 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>95</v>
       </c>
@@ -3140,7 +3135,7 @@
       </c>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>95</v>
       </c>
@@ -3167,7 +3162,7 @@
       </c>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -3178,7 +3173,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>96</v>
       </c>
@@ -3207,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>96</v>
       </c>
@@ -3236,7 +3231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>96</v>
       </c>
@@ -3265,7 +3260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>96</v>
       </c>
@@ -3294,7 +3289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>96</v>
       </c>
@@ -3323,7 +3318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>96</v>
       </c>
@@ -3352,7 +3347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>96</v>
       </c>
@@ -3381,7 +3376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>96</v>
       </c>
@@ -3410,7 +3405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>96</v>
       </c>
@@ -3439,7 +3434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>96</v>
       </c>
@@ -3468,7 +3463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
@@ -3479,7 +3474,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>97</v>
       </c>
@@ -3508,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>97</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -3548,7 +3543,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>98</v>
       </c>
@@ -3575,7 +3570,7 @@
       </c>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>98</v>
       </c>
@@ -3602,7 +3597,7 @@
       </c>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>98</v>
       </c>
@@ -3629,7 +3624,7 @@
       </c>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -3640,7 +3635,7 @@
       <c r="H49" s="27"/>
       <c r="I49" s="26"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>99</v>
       </c>
@@ -3663,10 +3658,10 @@
       <c r="H50" s="29"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3687,9 +3682,9 @@
       <selection sqref="A1:AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4.6008E-2</v>
       </c>
@@ -3799,7 +3794,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -3909,7 +3904,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -4019,7 +4014,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.3878E-2</v>
       </c>
@@ -4129,7 +4124,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -4239,7 +4234,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4349,7 +4344,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4459,7 +4454,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4569,7 +4564,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4789,7 +4784,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.4787E-2</v>
       </c>
@@ -4899,7 +4894,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.1585E-2</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -5119,7 +5114,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.7412E-2</v>
       </c>
@@ -5229,7 +5224,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5339,7 +5334,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.4527E-2</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.379E-2</v>
       </c>
@@ -5559,7 +5554,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.2543E-2</v>
       </c>
@@ -5669,7 +5664,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5779,7 +5774,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.141E-2</v>
       </c>
@@ -5889,7 +5884,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -6109,7 +6104,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.018E-2</v>
       </c>
@@ -6219,7 +6214,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6329,7 +6324,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.384E-3</v>
       </c>
@@ -6439,7 +6434,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9.025E-3</v>
       </c>
@@ -6549,7 +6544,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6659,7 +6654,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6769,7 +6764,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6879,7 +6874,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -6989,7 +6984,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -7099,7 +7094,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -7209,7 +7204,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7319,7 +7314,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7429,7 +7424,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7539,7 +7534,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7649,7 +7644,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7759,7 +7754,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7869,7 +7864,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -7979,7 +7974,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -8089,7 +8084,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -8199,7 +8194,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8309,7 +8304,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8419,7 +8414,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.421E-3</v>
       </c>
@@ -8529,7 +8524,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8639,7 +8634,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8749,7 +8744,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8859,7 +8854,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-1.1E-5</v>
       </c>
@@ -8969,7 +8964,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-5.62E-4</v>
       </c>
@@ -9079,7 +9074,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -9189,7 +9184,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -9299,7 +9294,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.702E-3</v>
       </c>
@@ -9409,7 +9404,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9519,7 +9514,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9629,7 +9624,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9739,7 +9734,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9849,7 +9844,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -9959,7 +9954,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -10069,7 +10064,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -10179,7 +10174,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -10289,7 +10284,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.655E-3</v>
       </c>
@@ -10399,7 +10394,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10509,7 +10504,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10619,7 +10614,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.493E-3</v>
       </c>
@@ -10729,7 +10724,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.273E-3</v>
       </c>
@@ -10839,7 +10834,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -10949,7 +10944,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -11059,7 +11054,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8E-5</v>
       </c>
@@ -11169,7 +11164,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.28E-4</v>
       </c>
@@ -11279,7 +11274,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11389,7 +11384,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11499,7 +11494,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.165E-3</v>
       </c>
@@ -11609,7 +11604,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.469E-3</v>
       </c>
@@ -11719,7 +11714,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11829,7 +11824,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -11939,7 +11934,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -12049,7 +12044,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -12159,7 +12154,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.166E-3</v>
       </c>
@@ -12269,7 +12264,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12379,7 +12374,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12489,7 +12484,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.653E-3</v>
       </c>
@@ -12599,7 +12594,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12709,7 +12704,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12819,7 +12814,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.704E-3</v>
       </c>
@@ -12929,7 +12924,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.725E-3</v>
       </c>
@@ -13057,7 +13052,7 @@
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1">
